--- a/biology/Médecine/École_du_Service_de_santé_des_armées/École_du_Service_de_santé_des_armées.xlsx
+++ b/biology/Médecine/École_du_Service_de_santé_des_armées/École_du_Service_de_santé_des_armées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cole_du_Service_de_sant%C3%A9_des_arm%C3%A9es</t>
+          <t>École_du_Service_de_santé_des_armées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Les écoles du Service de santé des armées (ESSA) sont des écoles militaires françaises qui forment le personnel médical et paramédical des forces armées françaises, rattaché au Service de santé des armées.
 On dénombre notamment, par ordre alphabétique :
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cole_du_Service_de_sant%C3%A9_des_arm%C3%A9es</t>
+          <t>École_du_Service_de_santé_des_armées</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Liens internes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">École militaire française, Liste des écoles militaires françaises
 Études de médecine en France
